--- a/0.1.0/StructureDefinition-cdm-claim-drug.xlsx
+++ b/0.1.0/StructureDefinition-cdm-claim-drug.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$177</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="775">
   <si>
     <t>Path</t>
   </si>
@@ -1362,6 +1362,16 @@
     <t>Claim.diagnosis.extension</t>
   </si>
   <si>
+    <t>majorDiagnosticCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/major-diagnostic-category}
+</t>
+  </si>
+  <si>
+    <t>The body system or disease related groupings of clinical conditions, based on diagnosis codes</t>
+  </si>
+  <si>
     <t>Claim.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1478,6 +1488,16 @@
   </si>
   <si>
     <t>Claim.procedure.extension</t>
+  </si>
+  <si>
+    <t>procedureGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-group}
+</t>
+  </si>
+  <si>
+    <t>Groups assigned to categorize related procedures</t>
   </si>
   <si>
     <t>Claim.procedure.modifierExtension</t>
@@ -2538,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL175"/>
+  <dimension ref="A1:AL177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10615,7 +10635,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10637,14 +10657,12 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10681,16 +10699,14 @@
         <v>42</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>142</v>
@@ -10714,48 +10730,46 @@
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -10803,7 +10817,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10812,7 +10826,7 @@
         <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>102</v>
@@ -10829,42 +10843,42 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>437</v>
+        <v>123</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10913,19 +10927,19 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10934,12 +10948,12 @@
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10962,17 +10976,19 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10997,13 +11013,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>444</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -11021,7 +11037,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -11047,7 +11063,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11055,10 +11071,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -11070,19 +11086,17 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11110,10 +11124,10 @@
         <v>211</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -11131,13 +11145,13 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
@@ -11157,7 +11171,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11168,7 +11182,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -11183,14 +11197,16 @@
         <v>154</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -11218,10 +11234,10 @@
         <v>211</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11239,13 +11255,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -11265,7 +11281,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11291,16 +11307,14 @@
         <v>154</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11328,10 +11342,10 @@
         <v>211</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11349,7 +11363,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -11375,7 +11389,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11386,7 +11400,7 @@
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -11398,17 +11412,19 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11433,13 +11449,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11457,13 +11473,13 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>42</v>
@@ -11483,7 +11499,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11494,7 +11510,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11506,16 +11522,18 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -11563,19 +11581,19 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11584,23 +11602,23 @@
         <v>42</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -11612,17 +11630,15 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11671,19 +11687,19 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11697,11 +11713,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11714,26 +11730,22 @@
         <v>42</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -11769,19 +11781,17 @@
         <v>42</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11802,20 +11812,22 @@
         <v>42</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>50</v>
@@ -11830,18 +11842,16 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11889,19 +11899,19 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
@@ -11910,16 +11920,16 @@
         <v>42</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11932,25 +11942,25 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>477</v>
+        <v>284</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -11975,13 +11985,13 @@
         <v>42</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>42</v>
@@ -11999,7 +12009,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -12011,7 +12021,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -12020,12 +12030,12 @@
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12033,7 +12043,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12048,17 +12058,17 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -12107,10 +12117,10 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12133,7 +12143,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12141,10 +12151,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -12156,17 +12166,19 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -12194,10 +12206,10 @@
         <v>211</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -12215,13 +12227,13 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>42</v>
@@ -12241,7 +12253,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12252,7 +12264,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -12264,17 +12276,17 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>493</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12323,13 +12335,13 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>42</v>
@@ -12349,7 +12361,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12360,7 +12372,7 @@
         <v>50</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12369,22 +12381,20 @@
         <v>42</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>275</v>
+        <v>492</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12409,13 +12419,13 @@
         <v>42</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>42</v>
+        <v>496</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>42</v>
+        <v>497</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
@@ -12433,13 +12443,13 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
@@ -12454,12 +12464,12 @@
         <v>42</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>502</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12470,7 +12480,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -12482,16 +12492,18 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
       </c>
@@ -12539,19 +12551,19 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>136</v>
+        <v>498</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
@@ -12560,20 +12572,20 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>41</v>
@@ -12585,21 +12597,23 @@
         <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>139</v>
+        <v>504</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -12647,10 +12661,10 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>142</v>
+        <v>503</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>41</v>
@@ -12659,7 +12673,7 @@
         <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12668,48 +12682,44 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12757,19 +12767,19 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
@@ -12778,23 +12788,23 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
@@ -12803,21 +12813,21 @@
         <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>507</v>
+        <v>139</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -12865,19 +12875,19 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>142</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12886,47 +12896,47 @@
         <v>42</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>511</v>
+        <v>284</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>285</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>122</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
@@ -12975,19 +12985,19 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12996,12 +13006,12 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13009,7 +13019,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>50</v>
@@ -13021,22 +13031,20 @@
         <v>42</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13085,10 +13093,10 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>50</v>
@@ -13100,10 +13108,10 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -13111,7 +13119,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13134,17 +13142,19 @@
         <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="N98" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13193,7 +13203,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -13219,7 +13229,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13242,17 +13252,19 @@
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13301,7 +13313,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -13316,10 +13328,10 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>42</v>
@@ -13327,7 +13339,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13335,10 +13347,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>42</v>
@@ -13347,22 +13359,20 @@
         <v>42</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>527</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13411,13 +13421,13 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>42</v>
@@ -13437,7 +13447,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13460,19 +13470,17 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13521,7 +13529,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13547,7 +13555,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13558,7 +13566,7 @@
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>42</v>
@@ -13570,17 +13578,19 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N102" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13629,13 +13639,13 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>42</v>
@@ -13655,7 +13665,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13678,16 +13688,20 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>52</v>
+        <v>541</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
       </c>
@@ -13735,7 +13749,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>136</v>
+        <v>540</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13747,7 +13761,7 @@
         <v>42</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>42</v>
@@ -13756,23 +13770,23 @@
         <v>42</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
@@ -13784,18 +13798,18 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>547</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13843,19 +13857,19 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>142</v>
+        <v>546</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13864,48 +13878,44 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13953,19 +13963,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13974,23 +13984,23 @@
         <v>42</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
@@ -14002,20 +14012,18 @@
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>548</v>
+        <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>549</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -14063,19 +14071,19 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>547</v>
+        <v>142</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -14084,45 +14092,47 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>554</v>
+        <v>284</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N107" t="s" s="2">
-        <v>556</v>
+        <v>123</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
@@ -14147,13 +14157,13 @@
         <v>42</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>557</v>
+        <v>42</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>558</v>
+        <v>42</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -14171,19 +14181,19 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -14192,12 +14202,12 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14205,7 +14215,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>50</v>
@@ -14220,17 +14230,19 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14279,10 +14291,10 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>50</v>
@@ -14305,7 +14317,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14316,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>42</v>
@@ -14328,17 +14340,17 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14363,13 +14375,13 @@
         <v>42</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>42</v>
+        <v>564</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>42</v>
@@ -14387,13 +14399,13 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>42</v>
@@ -14413,7 +14425,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14436,16 +14448,18 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>135</v>
+        <v>568</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
       </c>
@@ -14493,7 +14507,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>136</v>
+        <v>565</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14505,7 +14519,7 @@
         <v>42</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
@@ -14514,12 +14528,12 @@
         <v>42</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14542,16 +14556,18 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>98</v>
+        <v>572</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14587,17 +14603,19 @@
         <v>42</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>142</v>
+        <v>570</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14609,7 +14627,7 @@
         <v>42</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14623,11 +14641,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14648,13 +14664,13 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>571</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>572</v>
+        <v>135</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14705,19 +14721,19 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14726,16 +14742,14 @@
         <v>42</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
@@ -14744,7 +14758,7 @@
         <v>40</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>42</v>
@@ -14756,13 +14770,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>574</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>97</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>98</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14801,16 +14815,14 @@
         <v>42</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>142</v>
@@ -14822,7 +14834,7 @@
         <v>41</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>102</v>
@@ -14834,12 +14846,12 @@
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>576</v>
@@ -14930,7 +14942,7 @@
         <v>41</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>102</v>
@@ -14947,43 +14959,41 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>284</v>
+        <v>581</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15031,7 +15041,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -15040,7 +15050,7 @@
         <v>41</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>102</v>
@@ -15057,15 +15067,17 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>50</v>
@@ -15080,18 +15092,16 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>42</v>
       </c>
@@ -15139,19 +15149,19 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>580</v>
+        <v>142</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
@@ -15160,16 +15170,16 @@
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15182,23 +15192,25 @@
         <v>42</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>585</v>
+        <v>284</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N117" t="s" s="2">
-        <v>587</v>
+        <v>123</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -15247,7 +15259,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>584</v>
+        <v>286</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -15259,7 +15271,7 @@
         <v>42</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>42</v>
@@ -15268,12 +15280,12 @@
         <v>42</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15281,10 +15293,10 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>42</v>
@@ -15299,14 +15311,14 @@
         <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -15355,13 +15367,13 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>42</v>
@@ -15381,7 +15393,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15407,14 +15419,14 @@
         <v>355</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15463,7 +15475,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15489,7 +15501,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15515,14 +15527,14 @@
         <v>355</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15571,7 +15583,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15597,7 +15609,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15608,7 +15620,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15620,17 +15632,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15655,13 +15667,13 @@
         <v>42</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>42</v>
@@ -15679,13 +15691,13 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
@@ -15705,7 +15717,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15716,7 +15728,7 @@
         <v>40</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>42</v>
@@ -15728,19 +15740,17 @@
         <v>42</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
@@ -15765,13 +15775,13 @@
         <v>42</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15789,13 +15799,13 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>42</v>
@@ -15815,15 +15825,15 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>50</v>
@@ -15841,16 +15851,14 @@
         <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15877,9 +15885,11 @@
       <c r="W123" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X123" s="2"/>
+      <c r="X123" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="Y123" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>42</v>
@@ -15897,10 +15907,10 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>50</v>
@@ -15923,7 +15933,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15934,7 +15944,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>42</v>
@@ -15949,16 +15959,16 @@
         <v>154</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15986,10 +15996,10 @@
         <v>211</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -16007,13 +16017,13 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>42</v>
@@ -16033,18 +16043,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -16059,16 +16069,16 @@
         <v>154</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -16095,11 +16105,9 @@
       <c r="W125" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X125" t="s" s="2">
-        <v>632</v>
-      </c>
+      <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16117,13 +16125,13 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>42</v>
@@ -16143,7 +16151,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16154,7 +16162,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -16166,17 +16174,19 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -16201,13 +16211,13 @@
         <v>42</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16225,13 +16235,13 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>42</v>
@@ -16243,7 +16253,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -16251,7 +16261,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16262,7 +16272,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>42</v>
@@ -16274,17 +16284,19 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>639</v>
+        <v>154</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N127" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -16312,10 +16324,10 @@
         <v>211</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -16333,13 +16345,13 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>42</v>
@@ -16351,7 +16363,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -16359,7 +16371,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16382,17 +16394,17 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>646</v>
+        <v>409</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
@@ -16441,7 +16453,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16459,7 +16471,7 @@
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>42</v>
@@ -16467,7 +16479,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16490,16 +16502,18 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>52</v>
+        <v>645</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>134</v>
+        <v>646</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16523,13 +16537,13 @@
         <v>42</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>42</v>
+        <v>649</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>42</v>
+        <v>650</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>42</v>
@@ -16547,7 +16561,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>136</v>
+        <v>644</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16559,16 +16573,16 @@
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" hidden="true">
@@ -16577,14 +16591,14 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>42</v>
@@ -16596,18 +16610,18 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>96</v>
+        <v>652</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>139</v>
+        <v>653</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>42</v>
       </c>
@@ -16643,31 +16657,31 @@
         <v>42</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>142</v>
+        <v>651</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16676,16 +16690,14 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16706,13 +16718,13 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>653</v>
+        <v>52</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>654</v>
+        <v>134</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>654</v>
+        <v>135</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16763,19 +16775,19 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16784,23 +16796,23 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
@@ -16809,23 +16821,21 @@
         <v>42</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>656</v>
+        <v>96</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>657</v>
+        <v>139</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>658</v>
+        <v>140</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16861,31 +16871,31 @@
         <v>42</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AC132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>661</v>
+        <v>142</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16894,14 +16904,16 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>662</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="C133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16910,36 +16922,32 @@
         <v>40</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>72</v>
+        <v>659</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>666</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P133" t="s" s="2">
-        <v>667</v>
-      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16959,13 +16967,13 @@
         <v>42</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>669</v>
+        <v>42</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>42</v>
@@ -16983,19 +16991,19 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>670</v>
+        <v>142</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>42</v>
@@ -17004,12 +17012,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>671</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17032,17 +17040,19 @@
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>52</v>
+        <v>662</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>665</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -17091,7 +17101,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17112,12 +17122,12 @@
         <v>42</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17128,34 +17138,36 @@
         <v>40</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="Q135" t="s" s="2">
         <v>42</v>
       </c>
@@ -17175,13 +17187,13 @@
         <v>42</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>42</v>
+        <v>674</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>42</v>
+        <v>675</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>42</v>
@@ -17199,7 +17211,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17208,7 +17220,7 @@
         <v>50</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>683</v>
+        <v>42</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>63</v>
@@ -17220,12 +17232,12 @@
         <v>42</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17248,19 +17260,17 @@
         <v>51</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>688</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17309,7 +17319,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17330,12 +17340,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17355,20 +17365,20 @@
         <v>42</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>693</v>
+        <v>66</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17417,7 +17427,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17426,7 +17436,7 @@
         <v>50</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>42</v>
+        <v>689</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>63</v>
@@ -17438,12 +17448,12 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>42</v>
+        <v>690</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17463,22 +17473,22 @@
         <v>42</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>656</v>
+        <v>72</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17527,7 +17537,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17548,12 +17558,12 @@
         <v>42</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>42</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17576,19 +17586,17 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17637,7 +17645,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -17663,7 +17671,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17674,7 +17682,7 @@
         <v>40</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>42</v>
@@ -17686,17 +17694,19 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M140" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="N140" t="s" s="2">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
@@ -17745,13 +17755,13 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>42</v>
@@ -17794,7 +17804,7 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>154</v>
+        <v>699</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>709</v>
@@ -17831,13 +17841,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>713</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>714</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -17881,7 +17891,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17904,17 +17914,17 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>716</v>
+        <v>500</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>717</v>
+        <v>501</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>712</v>
+        <v>502</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17939,13 +17949,13 @@
         <v>42</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>718</v>
+        <v>42</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>719</v>
+        <v>42</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
@@ -17963,7 +17973,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17989,7 +17999,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18000,7 +18010,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>42</v>
@@ -18012,19 +18022,19 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>721</v>
+        <v>154</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18049,13 +18059,13 @@
         <v>42</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>42</v>
+        <v>719</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>42</v>
+        <v>720</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
@@ -18073,13 +18083,13 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>42</v>
@@ -18088,7 +18098,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>726</v>
+        <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>42</v>
@@ -18099,7 +18109,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18122,17 +18132,17 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>565</v>
+        <v>722</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>567</v>
+        <v>718</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -18157,13 +18167,13 @@
         <v>42</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>42</v>
+        <v>724</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>42</v>
+        <v>725</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
@@ -18181,7 +18191,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -18207,7 +18217,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18218,7 +18228,7 @@
         <v>40</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>42</v>
@@ -18230,16 +18240,20 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>52</v>
+        <v>727</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>134</v>
+        <v>728</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>731</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
       </c>
@@ -18287,33 +18301,33 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>136</v>
+        <v>726</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>42</v>
+        <v>732</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18336,16 +18350,18 @@
         <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>98</v>
+        <v>734</v>
       </c>
       <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+      <c r="N146" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
       </c>
@@ -18381,17 +18397,19 @@
         <v>42</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB146" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>142</v>
+        <v>733</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18403,7 +18421,7 @@
         <v>42</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
@@ -18417,11 +18435,9 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>731</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
         <v>42</v>
       </c>
@@ -18442,13 +18458,13 @@
         <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>732</v>
+        <v>52</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>733</v>
+        <v>134</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>733</v>
+        <v>135</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18499,19 +18515,19 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18520,16 +18536,16 @@
         <v>42</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18542,26 +18558,22 @@
         <v>42</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>42</v>
       </c>
@@ -18597,19 +18609,17 @@
         <v>42</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB148" s="2"/>
       <c r="AC148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18630,20 +18640,22 @@
         <v>42</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="B149" s="2"/>
+        <v>736</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>737</v>
+      </c>
       <c r="C149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>50</v>
@@ -18658,18 +18670,16 @@
         <v>42</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>355</v>
+        <v>738</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>582</v>
+        <v>739</v>
       </c>
       <c r="M149" s="2"/>
-      <c r="N149" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>42</v>
       </c>
@@ -18717,19 +18727,19 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>735</v>
+        <v>142</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>42</v>
@@ -18738,45 +18748,47 @@
         <v>42</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>601</v>
+        <v>284</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M150" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N150" t="s" s="2">
-        <v>603</v>
+        <v>123</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18801,13 +18813,13 @@
         <v>42</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
@@ -18825,19 +18837,19 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>736</v>
+        <v>286</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>42</v>
@@ -18846,12 +18858,12 @@
         <v>42</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18859,7 +18871,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>50</v>
@@ -18874,19 +18886,17 @@
         <v>42</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -18911,13 +18921,13 @@
         <v>42</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>42</v>
@@ -18935,10 +18945,10 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>50</v>
@@ -18961,15 +18971,15 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>50</v>
@@ -18987,16 +18997,14 @@
         <v>154</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19023,9 +19031,11 @@
       <c r="W152" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X152" s="2"/>
+      <c r="X152" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="Y152" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>42</v>
@@ -19043,10 +19053,10 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>50</v>
@@ -19069,7 +19079,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19080,7 +19090,7 @@
         <v>40</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>42</v>
@@ -19095,16 +19105,16 @@
         <v>154</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>740</v>
+        <v>613</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>741</v>
+        <v>615</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19132,10 +19142,10 @@
         <v>211</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>42</v>
@@ -19153,13 +19163,13 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>42</v>
@@ -19179,18 +19189,18 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>42</v>
@@ -19205,16 +19215,16 @@
         <v>154</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>42</v>
@@ -19241,11 +19251,9 @@
       <c r="W154" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X154" t="s" s="2">
-        <v>632</v>
-      </c>
+      <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>42</v>
@@ -19263,13 +19271,13 @@
         <v>42</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>42</v>
@@ -19289,7 +19297,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19300,7 +19308,7 @@
         <v>40</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>42</v>
@@ -19312,17 +19320,19 @@
         <v>42</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>646</v>
+        <v>154</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>747</v>
+      </c>
       <c r="N155" t="s" s="2">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>42</v>
@@ -19347,13 +19357,13 @@
         <v>42</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>42</v>
@@ -19371,13 +19381,13 @@
         <v>42</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>42</v>
@@ -19397,7 +19407,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19408,7 +19418,7 @@
         <v>40</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>42</v>
@@ -19420,17 +19430,19 @@
         <v>42</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>693</v>
+        <v>154</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M156" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N156" t="s" s="2">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>42</v>
@@ -19455,13 +19467,13 @@
         <v>42</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>42</v>
+        <v>638</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>42</v>
@@ -19479,13 +19491,13 @@
         <v>42</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>42</v>
@@ -19505,7 +19517,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19528,19 +19540,17 @@
         <v>42</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>698</v>
+        <v>653</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>42</v>
@@ -19589,7 +19599,7 @@
         <v>42</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19615,7 +19625,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19638,19 +19648,17 @@
         <v>42</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>42</v>
@@ -19699,7 +19707,7 @@
         <v>42</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
@@ -19725,7 +19733,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19736,7 +19744,7 @@
         <v>40</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>42</v>
@@ -19748,17 +19756,19 @@
         <v>42</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="N159" t="s" s="2">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>42</v>
@@ -19807,13 +19817,13 @@
         <v>42</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>42</v>
@@ -19833,7 +19843,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19844,7 +19854,7 @@
         <v>40</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>42</v>
@@ -19856,17 +19866,19 @@
         <v>42</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>275</v>
+        <v>699</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>565</v>
+        <v>709</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="N160" t="s" s="2">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>42</v>
@@ -19915,13 +19927,13 @@
         <v>42</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>42</v>
@@ -19941,7 +19953,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19952,7 +19964,7 @@
         <v>40</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>42</v>
@@ -19964,16 +19976,18 @@
         <v>42</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>42</v>
       </c>
@@ -20021,19 +20035,19 @@
         <v>42</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>136</v>
+        <v>753</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
@@ -20042,16 +20056,16 @@
         <v>42</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20070,18 +20084,18 @@
         <v>42</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N162" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O162" t="s" s="2">
         <v>42</v>
       </c>
@@ -20129,7 +20143,7 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>142</v>
+        <v>754</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -20141,7 +20155,7 @@
         <v>42</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
@@ -20150,48 +20164,44 @@
         <v>42</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>42</v>
       </c>
@@ -20239,19 +20249,19 @@
         <v>42</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
@@ -20260,23 +20270,23 @@
         <v>42</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>42</v>
@@ -20288,18 +20298,18 @@
         <v>42</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>581</v>
+        <v>139</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>42</v>
       </c>
@@ -20347,19 +20357,19 @@
         <v>42</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>752</v>
+        <v>142</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>42</v>
@@ -20368,45 +20378,47 @@
         <v>42</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>601</v>
+        <v>284</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M165" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N165" t="s" s="2">
-        <v>603</v>
+        <v>123</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>42</v>
@@ -20431,13 +20443,13 @@
         <v>42</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>42</v>
@@ -20455,19 +20467,19 @@
         <v>42</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>753</v>
+        <v>286</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>42</v>
@@ -20476,12 +20488,12 @@
         <v>42</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20489,7 +20501,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>50</v>
@@ -20504,19 +20516,17 @@
         <v>42</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20541,13 +20551,13 @@
         <v>42</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20565,10 +20575,10 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>50</v>
@@ -20591,7 +20601,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20599,7 +20609,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>50</v>
@@ -20617,16 +20627,14 @@
         <v>154</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20654,10 +20662,10 @@
         <v>211</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>756</v>
+        <v>610</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>757</v>
+        <v>611</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20675,10 +20683,10 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>50</v>
@@ -20701,7 +20709,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20712,7 +20720,7 @@
         <v>40</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>42</v>
@@ -20727,16 +20735,16 @@
         <v>154</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>740</v>
+        <v>613</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>741</v>
+        <v>615</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -20764,10 +20772,10 @@
         <v>211</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>42</v>
@@ -20785,13 +20793,13 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>42</v>
@@ -20811,7 +20819,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20819,10 +20827,10 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>42</v>
@@ -20837,16 +20845,16 @@
         <v>154</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -20874,10 +20882,10 @@
         <v>211</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>633</v>
+        <v>763</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>42</v>
@@ -20895,13 +20903,13 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>42</v>
@@ -20921,7 +20929,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20932,7 +20940,7 @@
         <v>40</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>42</v>
@@ -20944,17 +20952,19 @@
         <v>42</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>646</v>
+        <v>154</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M170" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>747</v>
+      </c>
       <c r="N170" t="s" s="2">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -20979,13 +20989,13 @@
         <v>42</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>42</v>
@@ -21003,13 +21013,13 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>42</v>
@@ -21029,7 +21039,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21040,7 +21050,7 @@
         <v>40</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>42</v>
@@ -21052,17 +21062,19 @@
         <v>42</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>693</v>
+        <v>154</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M171" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N171" t="s" s="2">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21087,13 +21099,13 @@
         <v>42</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>42</v>
+        <v>638</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>42</v>
@@ -21111,13 +21123,13 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>42</v>
@@ -21137,7 +21149,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21160,19 +21172,17 @@
         <v>42</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>698</v>
+        <v>653</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>42</v>
@@ -21221,7 +21231,7 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
@@ -21247,7 +21257,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21270,19 +21280,17 @@
         <v>42</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>42</v>
@@ -21331,7 +21339,7 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>40</v>
@@ -21357,7 +21365,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21368,7 +21376,7 @@
         <v>40</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>42</v>
@@ -21380,17 +21388,19 @@
         <v>42</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>42</v>
@@ -21439,13 +21449,13 @@
         <v>42</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>42</v>
@@ -21465,7 +21475,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21488,17 +21498,19 @@
         <v>42</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="M175" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="N175" t="s" s="2">
-        <v>768</v>
+        <v>712</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>42</v>
@@ -21547,7 +21559,7 @@
         <v>42</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>40</v>
@@ -21571,8 +21583,224 @@
         <v>42</v>
       </c>
     </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M176" s="2"/>
+      <c r="N176" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL175">
+  <autoFilter ref="A1:AL177">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21582,7 +21810,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI174">
+  <conditionalFormatting sqref="A2:AI176">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
